--- a/2024_07_copy.xlsx
+++ b/2024_07_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taehunlee/Desktop/duty_schedule_ver2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83B286-D412-8B44-8480-5FB763A2C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7570B126-4D24-0942-B7E5-3EAF08AB1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hoped_day" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="198">
   <si>
     <t>年度</t>
   </si>
@@ -3962,11 +3962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -4253,7 +4253,9 @@
       <c r="J7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="L7" s="19" t="s">
         <v>33</v>
       </c>
@@ -4302,7 +4304,9 @@
       <c r="J8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="L8" s="19" t="s">
         <v>26</v>
       </c>
@@ -4542,7 +4546,9 @@
         <v>26</v>
       </c>
       <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18" t="s">
         <v>33</v>
@@ -4555,7 +4561,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="T14" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
@@ -4584,7 +4592,9 @@
       <c r="J15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="L15" s="18" t="s">
         <v>28</v>
       </c>
@@ -5055,9 +5065,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
-      <c r="R26" s="17" t="s">
-        <v>197</v>
-      </c>
+      <c r="R26" s="17"/>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
       <c r="U26" s="19"/>
@@ -5084,7 +5092,9 @@
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="K27" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="L27" s="18"/>
       <c r="M27" s="17" t="s">
         <v>196</v>
@@ -5171,8 +5181,10 @@
         <v>29</v>
       </c>
       <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19" t="s">
+      <c r="K29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="18"/>
@@ -5216,8 +5228,10 @@
         <v>26</v>
       </c>
       <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="19" t="s">
+      <c r="K30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="18"/>
@@ -5264,7 +5278,7 @@
       </c>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="18" t="s">
         <v>26</v>
       </c>
       <c r="O31" s="18"/>
@@ -5302,7 +5316,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="18"/>
@@ -20754,11 +20768,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -21649,64 +21663,64 @@
         <v>1</v>
       </c>
       <c r="C13" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="20">
         <v>4</v>
       </c>
       <c r="F13" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="20">
         <v>4</v>
       </c>
       <c r="I13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="20">
         <v>0</v>
       </c>
       <c r="O13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" s="20">
         <v>0</v>
       </c>
       <c r="Q13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" s="20">
         <v>0</v>
       </c>
       <c r="S13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W13" s="20">
         <v>0</v>
@@ -21862,10 +21876,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="14">
         <v>3</v>
@@ -22911,8 +22925,8 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="C2:W16">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B2:B16">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -22921,8 +22935,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C2:W16">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
